--- a/doc/16指令表.xlsx
+++ b/doc/16指令表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Desktop\gitee\Yduck-processor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Desktop\gitee\Yduck-processor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31DFD12-8B95-4242-B13F-93CB86F80CD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8444AA-DB40-42D3-8E73-311B903993C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,21 @@
   <si>
     <t>DK循环左移RG+$H</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD,RC;NOP</t>
+  </si>
+  <si>
+    <t>NF,R0;IN,DK</t>
+  </si>
+  <si>
+    <t>LL,R0,255</t>
+  </si>
+  <si>
+    <t>LL,R0,68</t>
+  </si>
+  <si>
+    <t>WR,RC,DK</t>
   </si>
 </sst>
 </file>
@@ -674,6 +689,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -704,9 +722,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -987,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1010,16 +1025,16 @@
       <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
@@ -1042,8 +1057,8 @@
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="3" t="s">
         <v>63</v>
       </c>
@@ -1062,8 +1077,8 @@
       <c r="E3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="5" t="s">
         <v>64</v>
       </c>
@@ -1082,8 +1097,8 @@
       <c r="E4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="5" t="s">
         <v>67</v>
       </c>
@@ -1102,8 +1117,8 @@
       <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="5" t="s">
         <v>68</v>
       </c>
@@ -1122,8 +1137,8 @@
       <c r="E6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="6" t="s">
         <v>69</v>
       </c>
@@ -1147,7 +1162,7 @@
       <c r="F7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="14" t="s">
         <v>70</v>
       </c>
@@ -1169,7 +1184,7 @@
       <c r="F8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="15" t="s">
         <v>71</v>
       </c>
@@ -1191,7 +1206,7 @@
       <c r="F9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="15" t="s">
         <v>72</v>
       </c>
@@ -1213,7 +1228,7 @@
       <c r="F10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="15" t="s">
         <v>73</v>
       </c>
@@ -1232,10 +1247,10 @@
       <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="5" t="s">
         <v>74</v>
       </c>
@@ -1254,10 +1269,10 @@
       <c r="E12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="5" t="s">
         <v>75</v>
       </c>
@@ -1276,10 +1291,10 @@
       <c r="E13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="5" t="s">
         <v>76</v>
       </c>
@@ -1298,10 +1313,10 @@
       <c r="E14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="5" t="s">
         <v>77</v>
       </c>
@@ -1320,10 +1335,10 @@
       <c r="E15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="5" t="s">
         <v>78</v>
       </c>
@@ -1342,10 +1357,10 @@
       <c r="E16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="5" t="s">
         <v>79</v>
       </c>
@@ -1364,10 +1379,10 @@
       <c r="E17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="16" t="s">
         <v>80</v>
       </c>
@@ -1379,6 +1394,9 @@
       <c r="B18" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="H18" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1387,6 +1405,9 @@
       <c r="B19" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="H19" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
@@ -1394,6 +1415,19 @@
       </c>
       <c r="B20" s="18" t="s">
         <v>44</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/doc/16指令表.xlsx
+++ b/doc/16指令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Desktop\gitee\Yduck-processor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8444AA-DB40-42D3-8E73-311B903993C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB832D13-DDC3-43E9-9851-54F7917FF617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <t>[3:0]</t>
   </si>
   <si>
-    <t>汇编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,13 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DK!=0，则跳转到RG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到RG</t>
-  </si>
-  <si>
     <t>DK左移RG+$H次，低位补0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,19 +334,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LD,RC;NOP</t>
-  </si>
-  <si>
-    <t>NF,R0;IN,DK</t>
-  </si>
-  <si>
-    <t>LL,R0,255</t>
-  </si>
-  <si>
-    <t>LL,R0,68</t>
-  </si>
-  <si>
-    <t>WR,RC,DK</t>
+    <t>跳转到RG+$H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DK!=0，则跳转到RG+$H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助记符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -705,22 +699,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1020,10 +1014,10 @@
     <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>2</v>
@@ -1043,391 +1037,376 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>80</v>
+      </c>
       <c r="G2" s="27"/>
       <c r="H2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="27"/>
       <c r="H3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="27"/>
       <c r="H4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
       <c r="H5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29"/>
       <c r="H6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="30" t="s">
+        <v>81</v>
+      </c>
       <c r="H7" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/doc/16指令表.xlsx
+++ b/doc/16指令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Desktop\gitee\Yduck-processor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB832D13-DDC3-43E9-9851-54F7917FF617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF75E6A9-3C5B-4806-AE0C-C731E034603A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DK=[RG]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[RG]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,10 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[RG]=DK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RG=RG+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +343,14 @@
   </si>
   <si>
     <t>助记符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RG=[DK]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[DK]=RG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,7 +999,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1017,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>2</v>
@@ -1052,7 +1052,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="3" t="s">
@@ -1076,7 +1076,7 @@
       <c r="F3" s="26"/>
       <c r="G3" s="27"/>
       <c r="H3" s="5" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
       <c r="F4" s="26"/>
       <c r="G4" s="27"/>
       <c r="H4" s="5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
       <c r="H5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1136,7 +1136,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="29"/>
       <c r="H6" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1159,10 +1159,10 @@
         <v>60</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1395,10 +1395,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">

--- a/doc/16指令表.xlsx
+++ b/doc/16指令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Desktop\gitee\Yduck-processor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF75E6A9-3C5B-4806-AE0C-C731E034603A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B82FBE-3E0A-4116-A059-416B05C4EAA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,10 @@
   </si>
   <si>
     <t>[DK]=RG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持在存储后紧跟加载指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,7 +1003,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1391,6 +1395,9 @@
       </c>
       <c r="B18" s="12" t="s">
         <v>41</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/doc/16指令表.xlsx
+++ b/doc/16指令表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Desktop\gitee\Yduck-processor\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaow\Desktop\gitee\Yduck-processor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B82FBE-3E0A-4116-A059-416B05C4EAA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1E8DA4-9A3E-4104-A3F2-C671BD632987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>循环左移</t>
-  </si>
-  <si>
     <t>寄存器转移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DK循环左移RG+$H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跳转到RG+$H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,6 +348,14 @@
   </si>
   <si>
     <t>不支持在存储后紧跟加载指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DK=(RG==0)?DK左移：DK右移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1003,7 +1004,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1018,10 +1019,10 @@
     <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>2</v>
@@ -1047,20 +1048,20 @@
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1069,18 +1070,18 @@
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="27"/>
       <c r="H3" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1089,18 +1090,18 @@
         <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="27"/>
       <c r="H4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1109,18 +1110,18 @@
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
       <c r="H5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1129,18 +1130,18 @@
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29"/>
       <c r="H6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1148,91 +1149,91 @@
         <v>11</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="G7" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1241,20 +1242,20 @@
         <v>12</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1263,20 +1264,20 @@
         <v>13</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1285,20 +1286,20 @@
         <v>14</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1307,20 +1308,20 @@
         <v>15</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1329,20 +1330,20 @@
         <v>16</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1351,69 +1352,69 @@
         <v>17</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="16" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/doc/16指令表.xlsx
+++ b/doc/16指令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaow\Desktop\gitee\Yduck-processor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1E8DA4-9A3E-4104-A3F2-C671BD632987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EDAB71-8F15-446B-A284-1D703A60CFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DK=(RG==0)?DK左移：DK右移</t>
+    <t>$H[0]=0,RG=0左移,RG!=0右移；$H[0]=1,$H[1]=0左移,$H[1]=1右移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
